--- a/public/template-import-excel/edom-excel-import-mhs.xlsx
+++ b/public/template-import-excel/edom-excel-import-mhs.xlsx
@@ -16,32 +16,6 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>NIM</t>
-  </si>
-  <si>
-    <t>Nama Mahasiswa</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Kode Prodi</t>
-  </si>
-  <si>
-    <t>Kelas</t>
-  </si>
-  <si>
-    <t>Angkatan</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -126,43 +100,57 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" style="1" width="9.142307692307693"/>
     <col min="2" max="2" style="1" width="17.284675480769234" customWidth="1"/>
-    <col min="3" max="3" style="1" width="31.569531250000004" customWidth="1"/>
+    <col min="3" max="3" style="1" width="49.425600961538464" customWidth="1"/>
     <col min="4" max="4" style="1" width="23.284314903846155" customWidth="1"/>
     <col min="5" max="5" style="1" width="12.713521634615386" customWidth="1"/>
     <col min="6" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Nama Mahasiswa</t>
+        </is>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Kode Prodi</t>
+        </is>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Kelas</t>
+        </is>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Angkatan</t>
+        </is>
       </c>
     </row>
   </sheetData>
